--- a/Arquivos/Municipios - Fatores Solar.xlsx
+++ b/Arquivos/Municipios - Fatores Solar.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1686.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1673.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1686.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1626.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1735.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1619.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1677.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1579.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1748.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1572.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1583.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1679.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1603.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1667.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1704.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1663.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1585.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1492.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1773.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1628.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1649.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1724.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1705.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1623.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1560.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1614.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1621.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1724.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1693.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1627.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1664.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1635.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1622.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1572.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1653.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1665.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1717.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1724.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1744.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1778.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1605.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1565.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1593.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1601.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1558.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1638.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1543.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1635.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1664.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1634.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1679.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1837.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1661.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1621.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1750.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1623.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1690.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1558.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1616.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1589.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1733.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1621.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1750.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1710.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1715.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1670.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1645.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1693.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1723.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1666.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1548.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1622.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1614.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1709.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1625.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1585.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1614.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1640.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1618.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1694.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1670.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1490.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1549.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1620.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1662.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1597.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1759.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1695.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1673.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1602.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1685.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1629.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1752.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1732.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1663.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1610.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1716.4</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1686.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1724.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1639.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1757.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1658.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1635.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1638.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1668.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1702.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1582.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1684.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1611.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1648.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1602.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1570.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1697.3</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1669.6</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1604.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1690.8</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1736.0</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1550.7</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1633.9</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1591.1</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1468.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1614.2</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1635.5</t>
+          <t>Erro</t>
         </is>
       </c>
     </row>

--- a/Arquivos/Municipios - Fatores Solar.xlsx
+++ b/Arquivos/Municipios - Fatores Solar.xlsx
@@ -451,10 +451,8 @@
           <t>Acarape</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B2" t="n">
+        <v>114.77</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +461,8 @@
           <t>Acaraú</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B3" t="n">
+        <v>126.41</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +471,8 @@
           <t>Acopiara</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B4" t="n">
+        <v>125.32</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +481,8 @@
           <t>Aiuaba</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B5" t="n">
+        <v>126.27</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +491,8 @@
           <t>Alcântaras</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B6" t="n">
+        <v>121.63</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +501,8 @@
           <t>Altaneira</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B7" t="n">
+        <v>129.87</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +511,8 @@
           <t>Alto Santo</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B8" t="n">
+        <v>126.57</v>
       </c>
     </row>
     <row r="9">
@@ -535,10 +521,8 @@
           <t>Amontada</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B9" t="n">
+        <v>121.38</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +531,8 @@
           <t>Antonina do Norte</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B10" t="n">
+        <v>125.59</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +541,8 @@
           <t>Apuiarés</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B11" t="n">
+        <v>118.3</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +551,8 @@
           <t>Aquiraz</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B12" t="n">
+        <v>131.01</v>
       </c>
     </row>
     <row r="13">
@@ -583,10 +561,8 @@
           <t>Aracati</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B13" t="n">
+        <v>132.98</v>
       </c>
     </row>
     <row r="14">
@@ -595,10 +571,8 @@
           <t>Aracoiaba</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B14" t="n">
+        <v>117.7</v>
       </c>
     </row>
     <row r="15">
@@ -607,10 +581,8 @@
           <t>Ararendá</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B15" t="n">
+        <v>118.61</v>
       </c>
     </row>
     <row r="16">
@@ -619,10 +591,8 @@
           <t>Araripe</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B16" t="n">
+        <v>125.77</v>
       </c>
     </row>
     <row r="17">
@@ -631,10 +601,8 @@
           <t>Aratuba</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B17" t="n">
+        <v>120.48</v>
       </c>
     </row>
     <row r="18">
@@ -643,10 +611,8 @@
           <t>Arneiroz</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B18" t="n">
+        <v>124.96</v>
       </c>
     </row>
     <row r="19">
@@ -655,10 +621,8 @@
           <t>Assaré</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B19" t="n">
+        <v>127.55</v>
       </c>
     </row>
     <row r="20">
@@ -667,10 +631,8 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B20" t="n">
+        <v>105.68</v>
       </c>
     </row>
     <row r="21">
@@ -679,10 +641,8 @@
           <t>Baixio</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B21" t="n">
+        <v>130.81</v>
       </c>
     </row>
     <row r="22">
@@ -691,10 +651,8 @@
           <t>Banabuiú</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B22" t="n">
+        <v>124.57</v>
       </c>
     </row>
     <row r="23">
@@ -703,10 +661,8 @@
           <t>Barbalha</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B23" t="n">
+        <v>129.77</v>
       </c>
     </row>
     <row r="24">
@@ -715,10 +671,8 @@
           <t>Barreira</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B24" t="n">
+        <v>118.78</v>
       </c>
     </row>
     <row r="25">
@@ -727,10 +681,8 @@
           <t>Barro</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B25" t="n">
+        <v>93.93000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -739,10 +691,8 @@
           <t>Barroquinha</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B26" t="n">
+        <v>123.41</v>
       </c>
     </row>
     <row r="27">
@@ -751,10 +701,8 @@
           <t>Baturité</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B27" t="n">
+        <v>111.69</v>
       </c>
     </row>
     <row r="28">
@@ -763,10 +711,8 @@
           <t>Beberibe</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B28" t="n">
+        <v>132.98</v>
       </c>
     </row>
     <row r="29">
@@ -775,10 +721,8 @@
           <t>Bela Cruz</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B29" t="n">
+        <v>122.06</v>
       </c>
     </row>
     <row r="30">
@@ -787,10 +731,8 @@
           <t>Boa Viagem</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B30" t="n">
+        <v>123.58</v>
       </c>
     </row>
     <row r="31">
@@ -799,10 +741,8 @@
           <t>Brejo Santo</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B31" t="n">
+        <v>129.06</v>
       </c>
     </row>
     <row r="32">
@@ -811,10 +751,8 @@
           <t>Camocim</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B32" t="n">
+        <v>125.61</v>
       </c>
     </row>
     <row r="33">
@@ -823,10 +761,8 @@
           <t>Campos Sales</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B33" t="n">
+        <v>127.66</v>
       </c>
     </row>
     <row r="34">
@@ -835,10 +771,8 @@
           <t>Canindé</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B34" t="n">
+        <v>121.69</v>
       </c>
     </row>
     <row r="35">
@@ -847,10 +781,8 @@
           <t>Capistrano</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B35" t="n">
+        <v>107.84</v>
       </c>
     </row>
     <row r="36">
@@ -859,10 +791,8 @@
           <t>Caridade</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B36" t="n">
+        <v>121.08</v>
       </c>
     </row>
     <row r="37">
@@ -871,10 +801,8 @@
           <t>Cariré</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B37" t="n">
+        <v>121.46</v>
       </c>
     </row>
     <row r="38">
@@ -883,10 +811,8 @@
           <t>Caririaçu</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B38" t="n">
+        <v>129.15</v>
       </c>
     </row>
     <row r="39">
@@ -895,10 +821,8 @@
           <t>Cariús</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B39" t="n">
+        <v>126.88</v>
       </c>
     </row>
     <row r="40">
@@ -907,10 +831,8 @@
           <t>Carnaubal</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B40" t="n">
+        <v>129.97</v>
       </c>
     </row>
     <row r="41">
@@ -919,10 +841,8 @@
           <t>Cascavel</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B41" t="n">
+        <v>120.34</v>
       </c>
     </row>
     <row r="42">
@@ -931,10 +851,8 @@
           <t>Catarina</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B42" t="n">
+        <v>123.81</v>
       </c>
     </row>
     <row r="43">
@@ -943,10 +861,8 @@
           <t>Catunda</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B43" t="n">
+        <v>121.96</v>
       </c>
     </row>
     <row r="44">
@@ -955,10 +871,8 @@
           <t>Caucaia</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B44" t="n">
+        <v>125.57</v>
       </c>
     </row>
     <row r="45">
@@ -967,10 +881,8 @@
           <t>Cedro</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B45" t="n">
+        <v>129.38</v>
       </c>
     </row>
     <row r="46">
@@ -979,10 +891,8 @@
           <t>Chaval</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B46" t="n">
+        <v>124.75</v>
       </c>
     </row>
     <row r="47">
@@ -991,10 +901,8 @@
           <t>Choró</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B47" t="n">
+        <v>122.51</v>
       </c>
     </row>
     <row r="48">
@@ -1003,10 +911,8 @@
           <t>Chorozinho</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B48" t="n">
+        <v>121.63</v>
       </c>
     </row>
     <row r="49">
@@ -1015,10 +921,8 @@
           <t>Coreaú</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B49" t="n">
+        <v>117.86</v>
       </c>
     </row>
     <row r="50">
@@ -1027,10 +931,8 @@
           <t>Crateús</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B50" t="n">
+        <v>123.79</v>
       </c>
     </row>
     <row r="51">
@@ -1039,10 +941,8 @@
           <t>Crato</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B51" t="n">
+        <v>127.94</v>
       </c>
     </row>
     <row r="52">
@@ -1051,10 +951,8 @@
           <t>Croatá</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B52" t="n">
+        <v>130.12</v>
       </c>
     </row>
     <row r="53">
@@ -1063,10 +961,8 @@
           <t>Cruz</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B53" t="n">
+        <v>124.36</v>
       </c>
     </row>
     <row r="54">
@@ -1075,10 +971,8 @@
           <t>Deputado Irapuan Pinheiro</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B54" t="n">
+        <v>124.79</v>
       </c>
     </row>
     <row r="55">
@@ -1087,10 +981,8 @@
           <t>Ereré</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B55" t="n">
+        <v>128.77</v>
       </c>
     </row>
     <row r="56">
@@ -1099,10 +991,8 @@
           <t>Eusébio</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B56" t="n">
+        <v>129.28</v>
       </c>
     </row>
     <row r="57">
@@ -1111,10 +1001,8 @@
           <t>Farias Brito</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B57" t="n">
+        <v>126.77</v>
       </c>
     </row>
     <row r="58">
@@ -1123,10 +1011,8 @@
           <t>Forquilha</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B58" t="n">
+        <v>119.14</v>
       </c>
     </row>
     <row r="59">
@@ -1135,10 +1021,8 @@
           <t>Fortaleza</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B59" t="n">
+        <v>130.78</v>
       </c>
     </row>
     <row r="60">
@@ -1147,10 +1031,8 @@
           <t>Fortim</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B60" t="n">
+        <v>133.47</v>
       </c>
     </row>
     <row r="61">
@@ -1159,10 +1041,8 @@
           <t>Frecheirinha</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B61" t="n">
+        <v>120.25</v>
       </c>
     </row>
     <row r="62">
@@ -1171,10 +1051,8 @@
           <t>General Sampaio</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B62" t="n">
+        <v>117.28</v>
       </c>
     </row>
     <row r="63">
@@ -1183,10 +1061,8 @@
           <t>Graça</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B63" t="n">
+        <v>119.28</v>
       </c>
     </row>
     <row r="64">
@@ -1195,10 +1071,8 @@
           <t>Granja</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B64" t="n">
+        <v>119.03</v>
       </c>
     </row>
     <row r="65">
@@ -1207,10 +1081,8 @@
           <t>Granjeiro</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B65" t="n">
+        <v>128.35</v>
       </c>
     </row>
     <row r="66">
@@ -1219,10 +1091,8 @@
           <t>Groaíras</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B66" t="n">
+        <v>120.01</v>
       </c>
     </row>
     <row r="67">
@@ -1231,10 +1101,8 @@
           <t>Guaiúba</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B67" t="n">
+        <v>116.75</v>
       </c>
     </row>
     <row r="68">
@@ -1243,10 +1111,8 @@
           <t>Guaraciaba do Norte</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B68" t="n">
+        <v>122.54</v>
       </c>
     </row>
     <row r="69">
@@ -1255,10 +1121,8 @@
           <t>Guaramiranga</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B69" t="n">
+        <v>115.99</v>
       </c>
     </row>
     <row r="70">
@@ -1267,10 +1131,8 @@
           <t>Hidrolândia</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B70" t="n">
+        <v>128.44</v>
       </c>
     </row>
     <row r="71">
@@ -1279,10 +1141,8 @@
           <t>Horizonte</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B71" t="n">
+        <v>124.76</v>
       </c>
     </row>
     <row r="72">
@@ -1291,10 +1151,8 @@
           <t>Ibaretama</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B72" t="n">
+        <v>122.45</v>
       </c>
     </row>
     <row r="73">
@@ -1303,10 +1161,8 @@
           <t>Ibiapina</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B73" t="n">
+        <v>123.8</v>
       </c>
     </row>
     <row r="74">
@@ -1315,10 +1171,8 @@
           <t>Ibicuitinga</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B74" t="n">
+        <v>125.89</v>
       </c>
     </row>
     <row r="75">
@@ -1327,10 +1181,8 @@
           <t>Icapuí</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B75" t="n">
+        <v>137.89</v>
       </c>
     </row>
     <row r="76">
@@ -1339,10 +1191,8 @@
           <t>Icó</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B76" t="n">
+        <v>128.68</v>
       </c>
     </row>
     <row r="77">
@@ -1351,10 +1201,8 @@
           <t>Iguatu</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B77" t="n">
+        <v>129.23</v>
       </c>
     </row>
     <row r="78">
@@ -1363,10 +1211,8 @@
           <t>Independência</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B78" t="n">
+        <v>117.8</v>
       </c>
     </row>
     <row r="79">
@@ -1375,10 +1221,8 @@
           <t>Ipaporanga</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B79" t="n">
+        <v>121.39</v>
       </c>
     </row>
     <row r="80">
@@ -1387,10 +1231,8 @@
           <t>Ipaumirim</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B80" t="n">
+        <v>131.06</v>
       </c>
     </row>
     <row r="81">
@@ -1399,10 +1241,8 @@
           <t>Ipu</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B81" t="n">
+        <v>117.29</v>
       </c>
     </row>
     <row r="82">
@@ -1411,10 +1251,8 @@
           <t>Ipueiras</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B82" t="n">
+        <v>120.29</v>
       </c>
     </row>
     <row r="83">
@@ -1423,10 +1261,8 @@
           <t>Iracema</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B83" t="n">
+        <v>128.27</v>
       </c>
     </row>
     <row r="84">
@@ -1435,10 +1271,8 @@
           <t>Irauçuba</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B84" t="n">
+        <v>121.7</v>
       </c>
     </row>
     <row r="85">
@@ -1447,10 +1281,8 @@
           <t>Itaiçaba</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B85" t="n">
+        <v>126.75</v>
       </c>
     </row>
     <row r="86">
@@ -1459,10 +1291,8 @@
           <t>Itaitinga</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B86" t="n">
+        <v>122.59</v>
       </c>
     </row>
     <row r="87">
@@ -1471,10 +1301,8 @@
           <t>Itapajé</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B87" t="n">
+        <v>116.64</v>
       </c>
     </row>
     <row r="88">
@@ -1483,10 +1311,8 @@
           <t>Itapipoca</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B88" t="n">
+        <v>121.31</v>
       </c>
     </row>
     <row r="89">
@@ -1495,10 +1321,8 @@
           <t>Itapiúna</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B89" t="n">
+        <v>119.17</v>
       </c>
     </row>
     <row r="90">
@@ -1507,10 +1331,8 @@
           <t>Itarema</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B90" t="n">
+        <v>130.01</v>
       </c>
     </row>
     <row r="91">
@@ -1519,10 +1341,8 @@
           <t>Itatira</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B91" t="n">
+        <v>121.52</v>
       </c>
     </row>
     <row r="92">
@@ -1531,10 +1351,8 @@
           <t>Jaguaretama</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B92" t="n">
+        <v>131.15</v>
       </c>
     </row>
     <row r="93">
@@ -1543,10 +1361,8 @@
           <t>Jaguaribara</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B93" t="n">
+        <v>128.36</v>
       </c>
     </row>
     <row r="94">
@@ -1555,10 +1371,8 @@
           <t>Jaguaribe</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B94" t="n">
+        <v>128.68</v>
       </c>
     </row>
     <row r="95">
@@ -1567,10 +1381,8 @@
           <t>Jaguaruana</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B95" t="n">
+        <v>125.28</v>
       </c>
     </row>
     <row r="96">
@@ -1579,10 +1391,8 @@
           <t>Jardim</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B96" t="n">
+        <v>121.73</v>
       </c>
     </row>
     <row r="97">
@@ -1591,10 +1401,8 @@
           <t>Jati</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B97" t="n">
+        <v>123.47</v>
       </c>
     </row>
     <row r="98">
@@ -1603,10 +1411,8 @@
           <t>Jijoca de Jericoacoara</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B98" t="n">
+        <v>123.38</v>
       </c>
     </row>
     <row r="99">
@@ -1615,10 +1421,8 @@
           <t>Juazeiro do Norte</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B99" t="n">
+        <v>130.18</v>
       </c>
     </row>
     <row r="100">
@@ -1627,10 +1431,8 @@
           <t>Jucás</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B100" t="n">
+        <v>126.86</v>
       </c>
     </row>
     <row r="101">
@@ -1639,10 +1441,8 @@
           <t>Lavras da Mangabeira</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B101" t="n">
+        <v>129.07</v>
       </c>
     </row>
     <row r="102">
@@ -1651,10 +1451,8 @@
           <t>Limoeiro do Norte</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B102" t="n">
+        <v>125.06</v>
       </c>
     </row>
     <row r="103">
@@ -1663,10 +1461,8 @@
           <t>Madalena</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B103" t="n">
+        <v>91.48999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -1675,10 +1471,8 @@
           <t>Maracanaú</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B104" t="n">
+        <v>123.68</v>
       </c>
     </row>
     <row r="105">
@@ -1687,10 +1481,8 @@
           <t>Maranguape</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B105" t="n">
+        <v>116.04</v>
       </c>
     </row>
     <row r="106">
@@ -1699,10 +1491,8 @@
           <t>Marco</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B106" t="n">
+        <v>122.43</v>
       </c>
     </row>
     <row r="107">
@@ -1711,10 +1501,8 @@
           <t>Martinópole</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B107" t="n">
+        <v>120.93</v>
       </c>
     </row>
     <row r="108">
@@ -1723,10 +1511,8 @@
           <t>Massapê</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B108" t="n">
+        <v>119.29</v>
       </c>
     </row>
     <row r="109">
@@ -1747,10 +1533,8 @@
           <t>Meruoca</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B110" t="n">
+        <v>121.88</v>
       </c>
     </row>
     <row r="111">
@@ -1759,10 +1543,8 @@
           <t>Milagres</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B111" t="n">
+        <v>113.01</v>
       </c>
     </row>
     <row r="112">
@@ -1771,10 +1553,8 @@
           <t>Milhã</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B112" t="n">
+        <v>126.02</v>
       </c>
     </row>
     <row r="113">
@@ -1783,10 +1563,8 @@
           <t>Miraíma</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B113" t="n">
+        <v>118.88</v>
       </c>
     </row>
     <row r="114">
@@ -1795,10 +1573,8 @@
           <t>Missão Velha</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B114" t="n">
+        <v>128.93</v>
       </c>
     </row>
     <row r="115">
@@ -1807,10 +1583,8 @@
           <t>Mombaça</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B115" t="n">
+        <v>122.87</v>
       </c>
     </row>
     <row r="116">
@@ -1819,10 +1593,8 @@
           <t>Monsenhor Tabosa</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B116" t="n">
+        <v>120.99</v>
       </c>
     </row>
     <row r="117">
@@ -1831,10 +1603,8 @@
           <t>Morada Nova</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B117" t="n">
+        <v>127.55</v>
       </c>
     </row>
     <row r="118">
@@ -1843,10 +1613,8 @@
           <t>Moraújo</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B118" t="n">
+        <v>120.93</v>
       </c>
     </row>
     <row r="119">
@@ -1855,10 +1623,8 @@
           <t>Morrinhos</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B119" t="n">
+        <v>128.85</v>
       </c>
     </row>
     <row r="120">
@@ -1867,10 +1633,8 @@
           <t>Mucambo</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B120" t="n">
+        <v>120.74</v>
       </c>
     </row>
     <row r="121">
@@ -1879,10 +1643,8 @@
           <t>Mulungu</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B121" t="n">
+        <v>116.27</v>
       </c>
     </row>
     <row r="122">
@@ -1891,10 +1653,8 @@
           <t>Nova Olinda</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B122" t="n">
+        <v>127.45</v>
       </c>
     </row>
     <row r="123">
@@ -1903,10 +1663,8 @@
           <t>Nova Russas</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B123" t="n">
+        <v>122.83</v>
       </c>
     </row>
     <row r="124">
@@ -1915,10 +1673,8 @@
           <t>Novo Oriente</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B124" t="n">
+        <v>115.14</v>
       </c>
     </row>
     <row r="125">
@@ -1927,10 +1683,8 @@
           <t>Ocara</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B125" t="n">
+        <v>121.36</v>
       </c>
     </row>
     <row r="126">
@@ -1951,10 +1705,8 @@
           <t>Pacajus</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B127" t="n">
+        <v>125.23</v>
       </c>
     </row>
     <row r="128">
@@ -1963,10 +1715,8 @@
           <t>Pacatuba</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B128" t="n">
+        <v>111.47</v>
       </c>
     </row>
     <row r="129">
@@ -1975,10 +1725,8 @@
           <t>Pacoti</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B129" t="n">
+        <v>116.33</v>
       </c>
     </row>
     <row r="130">
@@ -1987,10 +1735,8 @@
           <t>Pacujá</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B130" t="n">
+        <v>121.42</v>
       </c>
     </row>
     <row r="131">
@@ -1999,10 +1745,8 @@
           <t>Palhano</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B131" t="n">
+        <v>124.62</v>
       </c>
     </row>
     <row r="132">
@@ -2011,10 +1755,8 @@
           <t>Palmácia</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B132" t="n">
+        <v>119.75</v>
       </c>
     </row>
     <row r="133">
@@ -2023,10 +1765,8 @@
           <t>Paracuru</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B133" t="n">
+        <v>131.91</v>
       </c>
     </row>
     <row r="134">
@@ -2035,10 +1775,8 @@
           <t>Paraipaba</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B134" t="n">
+        <v>127.13</v>
       </c>
     </row>
     <row r="135">
@@ -2047,10 +1785,8 @@
           <t>Parambu</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B135" t="n">
+        <v>125.21</v>
       </c>
     </row>
     <row r="136">
@@ -2059,10 +1795,8 @@
           <t>Paramoti</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B136" t="n">
+        <v>120.19</v>
       </c>
     </row>
     <row r="137">
@@ -2071,10 +1805,8 @@
           <t>Pedra Branca</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B137" t="n">
+        <v>122.49</v>
       </c>
     </row>
     <row r="138">
@@ -2083,10 +1815,8 @@
           <t>Penaforte</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B138" t="n">
+        <v>126.15</v>
       </c>
     </row>
     <row r="139">
@@ -2095,10 +1825,8 @@
           <t>Pentecoste</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B139" t="n">
+        <v>122.04</v>
       </c>
     </row>
     <row r="140">
@@ -2107,10 +1835,8 @@
           <t>Pereiro</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B140" t="n">
+        <v>131.42</v>
       </c>
     </row>
     <row r="141">
@@ -2119,10 +1845,8 @@
           <t>Pindoretama</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B141" t="n">
+        <v>129.85</v>
       </c>
     </row>
     <row r="142">
@@ -2131,10 +1855,8 @@
           <t>Piquet Carneiro</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B142" t="n">
+        <v>124.64</v>
       </c>
     </row>
     <row r="143">
@@ -2143,10 +1865,8 @@
           <t>Pires Ferreira</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B143" t="n">
+        <v>120.44</v>
       </c>
     </row>
     <row r="144">
@@ -2155,10 +1875,8 @@
           <t>Poranga</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B144" t="n">
+        <v>128.76</v>
       </c>
     </row>
     <row r="145">
@@ -2167,10 +1885,8 @@
           <t>Porteiras</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B145" t="n">
+        <v>123.51</v>
       </c>
     </row>
     <row r="146">
@@ -2179,10 +1895,8 @@
           <t>Potengi</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B146" t="n">
+        <v>126.28</v>
       </c>
     </row>
     <row r="147">
@@ -2191,10 +1905,8 @@
           <t>Potiretama</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B147" t="n">
+        <v>129.36</v>
       </c>
     </row>
     <row r="148">
@@ -2203,10 +1915,8 @@
           <t>Quiterianópolis</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B148" t="n">
+        <v>122.76</v>
       </c>
     </row>
     <row r="149">
@@ -2215,10 +1925,8 @@
           <t>Quixadá</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B149" t="n">
+        <v>122.5</v>
       </c>
     </row>
     <row r="150">
@@ -2227,10 +1935,8 @@
           <t>Quixelô</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B150" t="n">
+        <v>131.59</v>
       </c>
     </row>
     <row r="151">
@@ -2239,10 +1945,8 @@
           <t>Quixeramobim</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B151" t="n">
+        <v>124.22</v>
       </c>
     </row>
     <row r="152">
@@ -2251,10 +1955,8 @@
           <t>Quixeré</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B152" t="n">
+        <v>122.74</v>
       </c>
     </row>
     <row r="153">
@@ -2263,10 +1965,8 @@
           <t>Redenção</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B153" t="n">
+        <v>120.78</v>
       </c>
     </row>
     <row r="154">
@@ -2275,10 +1975,8 @@
           <t>Reriutaba</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B154" t="n">
+        <v>122.6</v>
       </c>
     </row>
     <row r="155">
@@ -2287,10 +1985,8 @@
           <t>Russas</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B155" t="n">
+        <v>125.08</v>
       </c>
     </row>
     <row r="156">
@@ -2299,10 +1995,8 @@
           <t>Saboeiro</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B156" t="n">
+        <v>127.44</v>
       </c>
     </row>
     <row r="157">
@@ -2311,10 +2005,8 @@
           <t>Salitre</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B157" t="n">
+        <v>128.21</v>
       </c>
     </row>
     <row r="158">
@@ -2323,10 +2015,8 @@
           <t>Santa Quitéria</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B158" t="n">
+        <v>122.16</v>
       </c>
     </row>
     <row r="159">
@@ -2335,10 +2025,8 @@
           <t>Santana do Acaraú</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B159" t="n">
+        <v>118.64</v>
       </c>
     </row>
     <row r="160">
@@ -2347,10 +2035,8 @@
           <t>Santana do Cariri</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B160" t="n">
+        <v>124.05</v>
       </c>
     </row>
     <row r="161">
@@ -2359,10 +2045,8 @@
           <t>São Benedito</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B161" t="n">
+        <v>123.77</v>
       </c>
     </row>
     <row r="162">
@@ -2371,10 +2055,8 @@
           <t>São Gonçalo do Amarante</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B162" t="n">
+        <v>126.29</v>
       </c>
     </row>
     <row r="163">
@@ -2383,10 +2065,8 @@
           <t>São João do Jaguaribe</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B163" t="n">
+        <v>126.32</v>
       </c>
     </row>
     <row r="164">
@@ -2395,10 +2075,8 @@
           <t>São Luís do Curu</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B164" t="n">
+        <v>120.72</v>
       </c>
     </row>
     <row r="165">
@@ -2407,10 +2085,8 @@
           <t>Senador Pompeu</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B165" t="n">
+        <v>123.57</v>
       </c>
     </row>
     <row r="166">
@@ -2419,10 +2095,8 @@
           <t>Senador Sá</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B166" t="n">
+        <v>120.13</v>
       </c>
     </row>
     <row r="167">
@@ -2431,10 +2105,8 @@
           <t>Sobral</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B167" t="n">
+        <v>117.7</v>
       </c>
     </row>
     <row r="168">
@@ -2443,10 +2115,8 @@
           <t>Solonópole</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B168" t="n">
+        <v>127.19</v>
       </c>
     </row>
     <row r="169">
@@ -2455,10 +2125,8 @@
           <t>Tabuleiro do Norte</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B169" t="n">
+        <v>125.27</v>
       </c>
     </row>
     <row r="170">
@@ -2467,10 +2135,8 @@
           <t>Tamboril</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B170" t="n">
+        <v>121.03</v>
       </c>
     </row>
     <row r="171">
@@ -2479,10 +2145,8 @@
           <t>Tarrafas</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B171" t="n">
+        <v>125.8</v>
       </c>
     </row>
     <row r="172">
@@ -2491,10 +2155,8 @@
           <t>Tauá</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B172" t="n">
+        <v>123.69</v>
       </c>
     </row>
     <row r="173">
@@ -2503,10 +2165,8 @@
           <t>Tejuçuoca</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B173" t="n">
+        <v>120.22</v>
       </c>
     </row>
     <row r="174">
@@ -2515,10 +2175,8 @@
           <t>Tianguá</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B174" t="n">
+        <v>126.73</v>
       </c>
     </row>
     <row r="175">
@@ -2527,10 +2185,8 @@
           <t>Trairi</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B175" t="n">
+        <v>129.12</v>
       </c>
     </row>
     <row r="176">
@@ -2539,10 +2195,8 @@
           <t>Tururu</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B176" t="n">
+        <v>115.97</v>
       </c>
     </row>
     <row r="177">
@@ -2551,10 +2205,8 @@
           <t>Ubajara</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B177" t="n">
+        <v>122.72</v>
       </c>
     </row>
     <row r="178">
@@ -2563,10 +2215,8 @@
           <t>Umari</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B178" t="n">
+        <v>129.83</v>
       </c>
     </row>
     <row r="179">
@@ -2575,10 +2225,8 @@
           <t>Umirim</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B179" t="n">
+        <v>119.18</v>
       </c>
     </row>
     <row r="180">
@@ -2587,10 +2235,8 @@
           <t>Uruburetama</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B180" t="n">
+        <v>109.86</v>
       </c>
     </row>
     <row r="181">
@@ -2599,10 +2245,8 @@
           <t>Uruoca</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B181" t="n">
+        <v>120.91</v>
       </c>
     </row>
     <row r="182">
@@ -2611,10 +2255,8 @@
           <t>Varjota</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B182" t="n">
+        <v>123.65</v>
       </c>
     </row>
     <row r="183">
@@ -2623,10 +2265,8 @@
           <t>Várzea Alegre</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B183" t="n">
+        <v>129.77</v>
       </c>
     </row>
     <row r="184">
@@ -2635,10 +2275,8 @@
           <t>Viçosa do Ceará</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Erro</t>
-        </is>
+      <c r="B184" t="n">
+        <v>122.58</v>
       </c>
     </row>
   </sheetData>
